--- a/asset/csv/4.xlsx
+++ b/asset/csv/4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\main\GitHub\history-memorizer\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C183B5E0-53F4-4BB4-B298-113EB0CB38E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA5E2F9-AD31-4503-AA2A-3A9E6647B684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,16 +75,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>黎朝（1428-1527, 1532-1789）</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>アサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>阮朝（1802-1945）</t>
     <rPh sb="0" eb="2">
       <t>ゲンチョウ</t>
@@ -1306,6 +1296,16 @@
     <t>ポルトガルに占領される（1511）</t>
     <rPh sb="6" eb="8">
       <t>センリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黎朝（1428-1527 1532-1789）</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>アサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1634,9 +1634,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.875" defaultRowHeight="18.75"/>
@@ -1682,19 +1682,19 @@
     </row>
     <row r="2" spans="1:11 16384:16384">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
@@ -1703,443 +1703,443 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
         <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11 16384:16384">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11 16384:16384">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11 16384:16384">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11 16384:16384">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:11 16384:16384">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
         <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:11 16384:16384">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:11 16384:16384">
       <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
         <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:11 16384:16384">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:11 16384:16384">
       <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>43</v>
       </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:11 16384:16384">
       <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
         <v>47</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>49</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:11 16384:16384">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:11 16384:16384">
       <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
         <v>55</v>
       </c>
-      <c r="B14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>56</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>57</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>58</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>59</v>
-      </c>
-      <c r="G14" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11 16384:16384">
       <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
         <v>61</v>
       </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
       <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
         <v>65</v>
-      </c>
-      <c r="D15" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:11 16384:16384">
       <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
         <v>67</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
         <v>68</v>
       </c>
-      <c r="C16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>69</v>
-      </c>
-      <c r="E16" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
         <v>71</v>
       </c>
-      <c r="B17" t="s">
-        <v>72</v>
-      </c>
       <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" t="s">
         <v>74</v>
-      </c>
-      <c r="D17" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
         <v>76</v>
-      </c>
-      <c r="B18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
         <v>78</v>
       </c>
-      <c r="B19" t="s">
-        <v>79</v>
-      </c>
       <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
         <v>82</v>
-      </c>
-      <c r="D19" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
         <v>84</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>85</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>86</v>
-      </c>
-      <c r="D20" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
         <v>88</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>89</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>90</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>91</v>
-      </c>
-      <c r="E21" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
         <v>93</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>94</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>95</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>96</v>
-      </c>
-      <c r="E22" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" t="s">
         <v>98</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>99</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>100</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>101</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>102</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>103</v>
-      </c>
-      <c r="G23" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" t="s">
         <v>105</v>
-      </c>
-      <c r="B24" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
         <v>107</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>108</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>109</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>110</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>111</v>
-      </c>
-      <c r="F25" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" t="s">
         <v>113</v>
       </c>
-      <c r="B26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>114</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>115</v>
-      </c>
-      <c r="E26" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" t="s">
         <v>117</v>
       </c>
-      <c r="B27" t="s">
-        <v>118</v>
-      </c>
       <c r="C27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" t="s">
         <v>120</v>
-      </c>
-      <c r="D27" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" t="s">
         <v>122</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>123</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>124</v>
-      </c>
-      <c r="D28" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" t="s">
         <v>126</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>127</v>
-      </c>
-      <c r="C29" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" t="s">
         <v>129</v>
-      </c>
-      <c r="B30" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" t="s">
         <v>131</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>132</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>133</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>134</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>135</v>
-      </c>
-      <c r="F31" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/asset/csv/4.xlsx
+++ b/asset/csv/4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\main\GitHub\history-memorizer\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA5E2F9-AD31-4503-AA2A-3A9E6647B684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFEC769-7468-4BE3-B521-B9AEF9A271A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="138">
   <si>
     <t>あ</t>
     <phoneticPr fontId="1"/>
@@ -1308,6 +1308,9 @@
       <t>アサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真臘とも呼ばれる</t>
   </si>
 </sst>
 </file>
@@ -1634,9 +1637,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.875" defaultRowHeight="18.75"/>
@@ -1894,9 +1897,12 @@
         <v>61</v>
       </c>
       <c r="C15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" t="s">
         <v>64</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>65</v>
       </c>
     </row>

--- a/asset/csv/4.xlsx
+++ b/asset/csv/4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\main\GitHub\history-memorizer\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFEC769-7468-4BE3-B521-B9AEF9A271A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E1D750-2045-47AF-89AB-24F24891307B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,10 +384,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1428-1527, 1532-1789</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>明の支配から独立し建国</t>
     <rPh sb="0" eb="1">
       <t>ミン</t>
@@ -1311,6 +1307,10 @@
   </si>
   <si>
     <t>真臘とも呼ばれる</t>
+  </si>
+  <si>
+    <t>1428-1527 1532-1789</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1639,7 +1639,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.875" defaultRowHeight="18.75"/>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="2" spans="1:11 16384:16384">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1709,10 +1709,10 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
         <v>6</v>
@@ -1809,343 +1809,343 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:11 16384:16384">
       <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:11 16384:16384">
       <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
         <v>46</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:11 16384:16384">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:11 16384:16384">
       <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
         <v>54</v>
       </c>
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>55</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>56</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>57</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>58</v>
-      </c>
-      <c r="G14" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:11 16384:16384">
       <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
         <v>60</v>
       </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
         <v>64</v>
-      </c>
-      <c r="E15" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:11 16384:16384">
       <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
         <v>66</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
         <v>67</v>
       </c>
-      <c r="C16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>68</v>
-      </c>
-      <c r="E16" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
         <v>70</v>
       </c>
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
       <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
         <v>73</v>
-      </c>
-      <c r="D17" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
         <v>75</v>
-      </c>
-      <c r="B18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
         <v>77</v>
       </c>
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
       <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
         <v>81</v>
-      </c>
-      <c r="D19" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
         <v>83</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>84</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>85</v>
-      </c>
-      <c r="D20" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" t="s">
         <v>87</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>88</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>89</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>90</v>
-      </c>
-      <c r="E21" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
         <v>92</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>93</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>94</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>95</v>
-      </c>
-      <c r="E22" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" t="s">
         <v>97</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>98</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>99</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>100</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>101</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>102</v>
-      </c>
-      <c r="G23" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" t="s">
         <v>104</v>
-      </c>
-      <c r="B24" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" t="s">
         <v>106</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>107</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>108</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>109</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>110</v>
-      </c>
-      <c r="F25" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
         <v>112</v>
       </c>
-      <c r="B26" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>113</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>114</v>
-      </c>
-      <c r="E26" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" t="s">
         <v>116</v>
       </c>
-      <c r="B27" t="s">
-        <v>117</v>
-      </c>
       <c r="C27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" t="s">
         <v>119</v>
-      </c>
-      <c r="D27" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" t="s">
         <v>121</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>122</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>123</v>
-      </c>
-      <c r="D28" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" t="s">
         <v>125</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>126</v>
-      </c>
-      <c r="C29" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" t="s">
         <v>128</v>
-      </c>
-      <c r="B30" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" t="s">
         <v>130</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>131</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>132</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>133</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>134</v>
-      </c>
-      <c r="F31" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
